--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/Investments_Login.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/Investments_Login.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Case</t>
   </si>
@@ -44,7 +44,25 @@
     <t>MF123</t>
   </si>
   <si>
-    <t>When user id and password are valid for Investments</t>
+    <t>BAJWA</t>
+  </si>
+  <si>
+    <t>RYANDIAS</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for Investments mutual_fund</t>
+  </si>
+  <si>
+    <t>HEEE</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for Investments Etdr_Fcy</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for Investments Etdr_Current</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for Investments Etdr_Saving</t>
   </si>
 </sst>
 </file>
@@ -362,15 +380,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -392,7 +410,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -401,10 +419,53 @@
         <v>4</v>
       </c>
       <c r="D2">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>12345678</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/Investments_Login.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/Investments_Login.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Case</t>
   </si>
@@ -53,9 +53,6 @@
     <t>When user id and password are valid for Investments mutual_fund</t>
   </si>
   <si>
-    <t>HEEE</t>
-  </si>
-  <si>
     <t>When user id and password are valid for Investments Etdr_Fcy</t>
   </si>
   <si>
@@ -63,16 +60,41 @@
   </si>
   <si>
     <t>When user id and password are valid for Investments Etdr_Saving</t>
+  </si>
+  <si>
+    <t>ETDR</t>
+  </si>
+  <si>
+    <t>ETDR22</t>
+  </si>
+  <si>
+    <t>ETDR33</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for Investments Etdr_Tran_Lock</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for Investments Etdr_Link</t>
+  </si>
+  <si>
+    <t>When user id and password are valid for Investments Etdr_Null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" customWidth="1"/>
+    <col min="1" max="1" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -424,10 +447,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
         <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -438,7 +461,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -452,7 +475,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -461,6 +484,48 @@
         <v>4</v>
       </c>
       <c r="D5">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>12345678</v>
       </c>
     </row>
